--- a/stock_info/종목코드.xlsx
+++ b/stock_info/종목코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\Stock_data\stock_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77893E21-22D0-4731-88C5-58A1E0579D49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA923F-1639-4F3D-AEE8-9DBBF8A4EFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="6153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6164" uniqueCount="6161">
   <si>
     <t>종목코드</t>
   </si>
@@ -18476,23 +18476,51 @@
     <t>뉴프라이드</t>
   </si>
   <si>
-    <t>https://finance.naver.com/item/coinfo.nhn?code=072990</t>
+    <t>http://consensus.hankyung.com/apps.analysis/analysis.list?sdate=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://finance.naver.com/item/coinfo.nhn?code=</t>
+    <t>http://consensus.hankyung.com/apps.analysis/analysis.list?sdate=2021-04-06&amp;edate=2021-05-06&amp;now_page=1&amp;search_value=&amp;report_type=&amp;pagenum=20&amp;search_text=005930&amp;business_code=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://finance.naver.com/item/coinfo.nhn?code=900080</t>
+    <t>&amp;edate=</t>
+  </si>
+  <si>
+    <t>&amp;now_page=1&amp;search_value=&amp;report_type=&amp;pagenum=20&amp;search_text=</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;business_code=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>005930</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>http://consensus.hankyung.com/apps.analysis/analysis.list?sdate=2021-04-06&amp;edate=2021-05-06&amp;now_page=1&amp;search_value=&amp;report_type=&amp;pagenum=20&amp;search_text=000660&amp;business_code=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://consensus.hankyung.com/apps.analysis/analysis.list?sdate=2021-04-06&amp;edate=2021-05-06&amp;now_page=1&amp;search_value=&amp;report_type=&amp;pagenum=20&amp;search_text=030520&amp;business_code=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>= TEXT (TODAY (), "yyyy") &amp;TEXT ((TODAY ()-DATEVALUE ("1/1/" &amp;TEXT (TODAY (), "yy") + 1), "000")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18521,6 +18549,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -18559,12 +18593,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -31493,13 +31533,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
@@ -31517,15 +31559,12 @@
       <c r="B2" t="s">
         <v>3153</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6150</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
         <v>6151</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>6152</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -31534,6 +31573,9 @@
       <c r="B3" t="s">
         <v>3155</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>6150</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -31542,6 +31584,9 @@
       <c r="B4" t="s">
         <v>3157</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>6156</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -31550,6 +31595,9 @@
       <c r="B5" t="s">
         <v>3159</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>6152</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -31558,6 +31606,9 @@
       <c r="B6" t="s">
         <v>3161</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>6157</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -31566,6 +31617,9 @@
       <c r="B7" t="s">
         <v>3163</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>6153</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -31574,6 +31628,13 @@
       <c r="B8" t="s">
         <v>3165</v>
       </c>
+      <c r="E8" s="6" t="str">
+        <f>A174</f>
+        <v>030520</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6155</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -31582,6 +31643,9 @@
       <c r="B9" t="s">
         <v>3167</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>6154</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -31598,6 +31662,7 @@
       <c r="B11" t="s">
         <v>3171</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -31606,6 +31671,10 @@
       <c r="B12" t="s">
         <v>3173</v>
       </c>
+      <c r="E12" s="4" t="str">
+        <f>E3&amp;E4&amp;E5&amp;E6&amp;E7&amp;$E$8&amp;E9</f>
+        <v>http://consensus.hankyung.com/apps.analysis/analysis.list?sdate=2021-04-06&amp;edate=2021-05-06&amp;now_page=1&amp;search_value=&amp;report_type=&amp;pagenum=20&amp;search_text=030520&amp;business_code=</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -31614,6 +31683,9 @@
       <c r="B13" t="s">
         <v>3175</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>6151</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -31630,6 +31702,9 @@
       <c r="B15" t="s">
         <v>3179</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>6158</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -31638,16 +31713,20 @@
       <c r="B16" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>3182</v>
       </c>
       <c r="B17" t="s">
         <v>3183</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E17" s="2" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>3184</v>
       </c>
@@ -31655,15 +31734,18 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>3186</v>
       </c>
       <c r="B19" t="s">
         <v>3187</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I19" s="8" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>3188</v>
       </c>
@@ -31671,39 +31753,59 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>3190</v>
       </c>
       <c r="B21" t="s">
         <v>3191</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I21" t="str">
+        <f ca="1">TEXT(TODAY(), "yyyy")</f>
+        <v>2021</v>
+      </c>
+      <c r="L21" t="str">
+        <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
+        <v>2021-05-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>3192</v>
       </c>
       <c r="B22" t="s">
         <v>3193</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I22" t="str">
+        <f ca="1">TEXT(TODAY(),"mm")</f>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>3194</v>
       </c>
       <c r="B23" t="s">
         <v>3195</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I23" t="str">
+        <f ca="1">TEXT(TODAY(),"dd")</f>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>3196</v>
       </c>
       <c r="B24" t="s">
         <v>3197</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I24" t="str">
+        <f ca="1">I21&amp;"-"&amp;I22&amp;"-"&amp;I23</f>
+        <v>2021-05-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>3198</v>
       </c>
@@ -31711,23 +31813,32 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>3200</v>
       </c>
       <c r="B26" t="s">
         <v>3201</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I26" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44322</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>3202</v>
       </c>
       <c r="B27" t="s">
         <v>3203</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I27" s="3">
+        <f ca="1">TODAY()-30</f>
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>3204</v>
       </c>
@@ -31735,7 +31846,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>3206</v>
       </c>
@@ -31743,7 +31854,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>3208</v>
       </c>
@@ -31751,7 +31862,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>3210</v>
       </c>
@@ -31759,7 +31870,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>3212</v>
       </c>
@@ -43515,11 +43626,13 @@
   <autoFilter ref="A1:B1" xr:uid="{06321F2A-DED5-49DC-8DA9-984B30E41F84}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FB0917A1-A282-4D39-8AE4-F040917D8A40}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{2C62EA59-A9C9-4443-B63E-DB534B011908}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{7191AD37-B346-4881-8994-522C5A514FD5}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F26943BC-7552-4B20-BCF3-CF074EDD3558}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{499CE9AF-DD39-4FFF-8CDE-89DDA2AA7862}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{2B14FC89-6054-4A55-AE9A-15321A65B22F}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{8CED96C9-26DA-4D6E-BD56-7BE716812343}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{270DAA59-8553-4DFA-B03C-91D6F431B3F0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>